--- a/システム概要.xlsx
+++ b/システム概要.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC37828-A083-4502-AB13-FC5486F790D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AF7B9-F262-4D74-82A9-F2D0E2ACAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
@@ -11128,13 +11128,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>339969</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>115472</xdr:rowOff>
+      <xdr:rowOff>156505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604324</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>110105</xdr:rowOff>
+      <xdr:rowOff>151138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11149,71 +11149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="1487072"/>
-          <a:ext cx="264355" cy="223233"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>345831</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610186</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>33320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B0A3FD-AA52-4B16-9B97-4E822C61CDB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3892062" y="1867487"/>
+          <a:off x="3886200" y="1528105"/>
           <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/システム概要.xlsx
+++ b/システム概要.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AF7B9-F262-4D74-82A9-F2D0E2ACAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002F207-AFF1-4614-91E1-746D9FFA8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
@@ -756,9 +756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・お気に入り状況よりレシピを検索</t>
-  </si>
-  <si>
     <t>・レシピ一覧表示（料理区分ごとにタブ、ページネーションを利用）</t>
   </si>
   <si>
@@ -1481,6 +1478,10 @@
     <rPh sb="34" eb="35">
       <t>ケン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お気に入り状況よりレシピを検索（スクレイピング）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11538,32 +11539,32 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
@@ -11661,27 +11662,27 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
@@ -11696,7 +11697,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
@@ -11711,7 +11712,7 @@
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.45">
@@ -11726,12 +11727,12 @@
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
@@ -11751,12 +11752,12 @@
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K158" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.45">
@@ -12374,76 +12375,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1CA37-B545-4E95-A382-3944B1487F65}">
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.796875" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="29.3984375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="65.8984375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.296875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="25.296875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="20.09765625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.3984375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.796875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="7"/>
@@ -12454,10 +12456,10 @@
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
       <c r="D4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
@@ -12470,10 +12472,10 @@
       <c r="B5" s="12"/>
       <c r="C5" s="8"/>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="8"/>
@@ -12486,10 +12488,10 @@
       <c r="B6" s="12"/>
       <c r="C6" s="8"/>
       <c r="D6" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="8"/>
@@ -12502,10 +12504,10 @@
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
       <c r="D7" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="8"/>
@@ -12518,10 +12520,10 @@
       <c r="B8" s="13"/>
       <c r="C8" s="9"/>
       <c r="D8" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="9"/>
@@ -12532,22 +12534,22 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7"/>
@@ -12558,22 +12560,22 @@
       <c r="B10" s="12"/>
       <c r="C10" s="8"/>
       <c r="D10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8"/>
@@ -12584,10 +12586,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="8"/>
       <c r="F11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="8"/>
@@ -12600,10 +12602,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="8"/>
       <c r="F12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="8"/>
@@ -12614,28 +12616,28 @@
       <c r="B13" s="12"/>
       <c r="C13" s="8"/>
       <c r="D13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="I13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
@@ -12646,13 +12648,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
       <c r="H14" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>25</v>
@@ -12666,38 +12668,38 @@
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
       <c r="H15" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="8"/>
       <c r="D16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8"/>
@@ -12710,10 +12712,10 @@
       <c r="F17" s="12"/>
       <c r="G17" s="8"/>
       <c r="H17" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8"/>
@@ -12726,10 +12728,10 @@
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8"/>
@@ -12742,10 +12744,10 @@
       <c r="F19" s="12"/>
       <c r="G19" s="8"/>
       <c r="H19" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="8"/>
@@ -12758,10 +12760,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="8"/>
       <c r="H20" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="8"/>
@@ -12774,10 +12776,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="H21" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="8"/>
@@ -12790,10 +12792,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="8"/>
@@ -12806,10 +12808,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="8"/>
@@ -12822,10 +12824,10 @@
       <c r="F24" s="12"/>
       <c r="G24" s="8"/>
       <c r="H24" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="8"/>
@@ -12834,10 +12836,10 @@
       <c r="B25" s="12"/>
       <c r="C25" s="8"/>
       <c r="D25" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="8"/>
@@ -12850,10 +12852,10 @@
       <c r="B26" s="12"/>
       <c r="C26" s="8"/>
       <c r="D26" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="8"/>
@@ -12866,10 +12868,10 @@
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
@@ -12882,10 +12884,10 @@
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="8"/>
@@ -12898,10 +12900,10 @@
       <c r="B29" s="12"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="8"/>
@@ -12914,10 +12916,10 @@
       <c r="B30" s="12"/>
       <c r="C30" s="8"/>
       <c r="D30" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="8"/>
@@ -12930,10 +12932,10 @@
       <c r="B31" s="12"/>
       <c r="C31" s="8"/>
       <c r="D31" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="8"/>
@@ -12946,10 +12948,10 @@
       <c r="B32" s="12"/>
       <c r="C32" s="8"/>
       <c r="D32" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
@@ -12962,10 +12964,10 @@
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
       <c r="D33" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="8"/>
@@ -12978,10 +12980,10 @@
       <c r="B34" s="12"/>
       <c r="C34" s="8"/>
       <c r="D34" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="8"/>
@@ -12994,10 +12996,10 @@
       <c r="B35" s="12"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="8"/>
@@ -13010,10 +13012,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="9"/>
       <c r="D36" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -13024,10 +13026,10 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="4"/>
@@ -13040,10 +13042,10 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="4"/>
@@ -13056,10 +13058,10 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="4"/>
@@ -13072,10 +13074,10 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="4"/>
@@ -13107,27 +13109,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
